--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32279-d499011-Reviews-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Beachfront-Inn-And-Suites-At-Dana-Point.h18815272.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529287285287&amp;cancellable=false&amp;regionId=6752&amp;vip=false&amp;c=8ac048d6-a645-44a5-976d-4f12b896cc06&amp;mctc=9&amp;exp_dp=183.33&amp;exp_ts=1529287285785&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,161 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r582323513-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>32279</t>
+  </si>
+  <si>
+    <t>499011</t>
+  </si>
+  <si>
+    <t>582323513</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Basic and Clean with Helpful Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for a mid-week get away. The rooms were basic, clean and functional. My interactions with staff were pleasant and their staff was very helpful. It is very close to the beach and also unfortunately the train (which was not a major issue for us). The breakfast was basic but again good for us. I recommend the hotel if you’re on a budget and would like a very functional hotel. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r581556625-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>581556625</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Comfortable and basic accommodations</t>
+  </si>
+  <si>
+    <t>Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. 
+There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was...Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was being painted, so perhaps all rooms were set to be painted and renovated in the near future. Additionally, there was a drip coming from the bathroom fan, possibly from the condensation after the shower, but it continued for a while after the shower was used. The cleaning people did come in each day to clean the room, and were also very responsive to my request to change the sheets. Also on the last night, the plastic key card to the room, did not work, but fortunately the person in the office was there and able to replace it quickly and apologized for the glitch.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. 
+There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was...Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was being painted, so perhaps all rooms were set to be painted and renovated in the near future. Additionally, there was a drip coming from the bathroom fan, possibly from the condensation after the shower, but it continued for a while after the shower was used. The cleaning people did come in each day to clean the room, and were also very responsive to my request to change the sheets. Also on the last night, the plastic key card to the room, did not work, but fortunately the person in the office was there and able to replace it quickly and apologized for the glitch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r579536312-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>579536312</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding and I stayed here for a long weekend .I was kind of hesitant at first being there were not that many reviews.But it was great .I had a suite on the 3rd floor  with two large king beds. Huge living room , microwave  mini fridge and the view was awesome. While  it didnt have all the bells and whistles  of all the big resorts.  My room was clean , the front desk and all the staff were  wonderful.  The location was greatI would definitely  stay here if back in the area again . I hardley heard the train .I  hear louder noises  at my house with traffic  then I did here . The only suggestion  I would  make is possibly  add more of a selection  to the breakfast . Besides that everything  is wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding and I stayed here for a long weekend .I was kind of hesitant at first being there were not that many reviews.But it was great .I had a suite on the 3rd floor  with two large king beds. Huge living room , microwave  mini fridge and the view was awesome. While  it didnt have all the bells and whistles  of all the big resorts.  My room was clean , the front desk and all the staff were  wonderful.  The location was greatI would definitely  stay here if back in the area again . I hardley heard the train .I  hear louder noises  at my house with traffic  then I did here . The only suggestion  I would  make is possibly  add more of a selection  to the breakfast . Besides that everything  is wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r563461898-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>563461898</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Was looking for a place to stay we hadn't stayed before. I found Beachfront Inn and Suites at Dana Point, Not a lot of reviews but I am Glad I found this place. Rooms are very big 650 to 700 sq feet. The room or Suite I had was overlooking the ocean and beach. Very quite and peaceful. Front desk staff are friendly and welcoming. Hotel is clean. Limited House Keeping but I can make my own bed :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Dana R, Guest Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Was looking for a place to stay we hadn't stayed before. I found Beachfront Inn and Suites at Dana Point, Not a lot of reviews but I am Glad I found this place. Rooms are very big 650 to 700 sq feet. The room or Suite I had was overlooking the ocean and beach. Very quite and peaceful. Front desk staff are friendly and welcoming. Hotel is clean. Limited House Keeping but I can make my own bed :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r549768988-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>549768988</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Great service!!</t>
+  </si>
+  <si>
+    <t>Had an amazing time here and the management was so accomodating to our needs. Craig is a great manager. It's also a beautiful location. The best on the beach! Is also close to many places to eat and fun activities. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Dana R, Public Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Had an amazing time here and the management was so accomodating to our needs. Craig is a great manager. It's also a beautiful location. The best on the beach! Is also close to many places to eat and fun activities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r543035316-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>543035316</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>One hour away from Los Angeles without traffic . Very attentive customer service. Excellent location. Close to points of interest along the coast and to Restaurants.We walked over the bridge to the beach and witnessed the most majestic sunset.We had a wonderful time at our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Dana R, Guest Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>One hour away from Los Angeles without traffic . Very attentive customer service. Excellent location. Close to points of interest along the coast and to Restaurants.We walked over the bridge to the beach and witnessed the most majestic sunset.We had a wonderful time at our stay.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +800,374 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jonkS6664FJ</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>heathermci</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r581556625-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
@@ -200,6 +206,9 @@
 There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was...Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was being painted, so perhaps all rooms were set to be painted and renovated in the near future. Additionally, there was a drip coming from the bathroom fan, possibly from the condensation after the shower, but it continued for a while after the shower was used. The cleaning people did come in each day to clean the room, and were also very responsive to my request to change the sheets. Also on the last night, the plastic key card to the room, did not work, but fortunately the person in the office was there and able to replace it quickly and apologized for the glitch.More</t>
   </si>
   <si>
+    <t>Margaret C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r579536312-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>I was in town for a wedding and I stayed here for a long weekend .I was kind of hesitant at first being there were not that many reviews.But it was great .I had a suite on the 3rd floor  with two large king beds. Huge living room , microwave  mini fridge and the view was awesome. While  it didnt have all the bells and whistles  of all the big resorts.  My room was clean , the front desk and all the staff were  wonderful.  The location was greatI would definitely  stay here if back in the area again . I hardley heard the train .I  hear louder noises  at my house with traffic  then I did here . The only suggestion  I would  make is possibly  add more of a selection  to the breakfast . Besides that everything  is wonderful.More</t>
   </si>
   <si>
+    <t>Chuck W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r563461898-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
     <t>Was looking for a place to stay we hadn't stayed before. I found Beachfront Inn and Suites at Dana Point, Not a lot of reviews but I am Glad I found this place. Rooms are very big 650 to 700 sq feet. The room or Suite I had was overlooking the ocean and beach. Very quite and peaceful. Front desk staff are friendly and welcoming. Hotel is clean. Limited House Keeping but I can make my own bed :-)More</t>
   </si>
   <si>
+    <t>BJ F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r549768988-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
   </si>
   <si>
     <t>Had an amazing time here and the management was so accomodating to our needs. Craig is a great manager. It's also a beautiful location. The best on the beach! Is also close to many places to eat and fun activities. More</t>
+  </si>
+  <si>
+    <t>154aliza</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r543035316-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
@@ -804,43 +822,47 @@
       <c r="A2" t="n">
         <v>29152</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -854,50 +876,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29152</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -915,50 +941,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29152</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -972,50 +1002,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29152</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1033,56 +1067,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29152</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1094,56 +1132,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29152</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1159,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_751.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,61 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
-  <si>
-    <t>STR#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>TA_ReviewURL</t>
-  </si>
-  <si>
-    <t>English_Reviews_num</t>
-  </si>
-  <si>
-    <t>Local_Rank</t>
-  </si>
-  <si>
-    <t>Total_Reviews_num</t>
-  </si>
-  <si>
-    <t>Orbitz_ReviewURL</t>
-  </si>
-  <si>
-    <t>The Beachfront Inn &amp; Suites @ Dana Point</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Capistrano Beach</t>
-  </si>
-  <si>
-    <t>92624</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/Hotel_Review-g32279-d499011-Reviews-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://www.orbitz.com/Orange-County-Hotels-Beachfront-Inn-And-Suites-At-Dana-Point.h18815272.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529287285287&amp;cancellable=false&amp;regionId=6752&amp;vip=false&amp;c=8ac048d6-a645-44a5-976d-4f12b896cc06&amp;mctc=9&amp;exp_dp=183.33&amp;exp_ts=1529287285785&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>STR</t>
   </si>
@@ -147,21 +93,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jonkS6664FJ</t>
-  </si>
-  <si>
-    <t>07/12/2018</t>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r629153496-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>32279</t>
+  </si>
+  <si>
+    <t>499011</t>
+  </si>
+  <si>
+    <t>629153496</t>
+  </si>
+  <si>
+    <t>10/28/2018</t>
+  </si>
+  <si>
+    <t>Great service with great views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We loved our stay. Booking two rooms because I was traveling with three adults and three children, this hotel was accommodating in every way. We loved walking out on the patio to watch the sunset over the sea and really enjoyed breakfast with a wide range of options to suit our picky teenage twins tastes too. </t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r617675731-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>617675731</t>
+  </si>
+  <si>
+    <t>September 18, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r593101591-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>593101591</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>For the price this is a great hotel with a great view of the ocean. I mean, it's a fairly basic hotel but it's right on the ocean, room was clean, parking was included and check in was easy. It's also a quick walk to a few different bars and restaurants and the beach is easy to get to from here. I would definitely recommend this place if you're looking for a great value on the beachMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Dana R, Public Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
+  </si>
+  <si>
+    <t>For the price this is a great hotel with a great view of the ocean. I mean, it's a fairly basic hotel but it's right on the ocean, room was clean, parking was included and check in was easy. It's also a quick walk to a few different bars and restaurants and the beach is easy to get to from here. I would definitely recommend this place if you're looking for a great value on the beachMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r591949027-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>591949027</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Great views...</t>
+  </si>
+  <si>
+    <t>Had a room on the top floor with a wonderful view of the ocean.  The good....the sunsets were absolutely beautiful!  The bad....trains across the street going by at all hours of the day and night....and the ugly.....for the price of this room the breakfast was disappointing.  But overall, I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a room on the top floor with a wonderful view of the ocean.  The good....the sunsets were absolutely beautiful!  The bad....trains across the street going by at all hours of the day and night....and the ugly.....for the price of this room the breakfast was disappointing.  But overall, I'd stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r582323513-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
-    <t>32279</t>
-  </si>
-  <si>
-    <t>499011</t>
-  </si>
-  <si>
     <t>582323513</t>
   </si>
   <si>
@@ -171,16 +192,13 @@
     <t>Basic and Clean with Helpful Staff</t>
   </si>
   <si>
-    <t xml:space="preserve">We stayed here for a mid-week get away. The rooms were basic, clean and functional. My interactions with staff were pleasant and their staff was very helpful. It is very close to the beach and also unfortunately the train (which was not a major issue for us). The breakfast was basic but again good for us. I recommend the hotel if you’re on a budget and would like a very functional hotel. </t>
+    <t>We stayed here for a mid-week get away. The rooms were basic, clean and functional. My interactions with staff were pleasant and their staff was very helpful. It is very close to the beach and also unfortunately the train (which was not a major issue for us). The breakfast was basic but again good for us. I recommend the hotel if you’re on a budget and would like a very functional hotel. MoreShow less</t>
   </si>
   <si>
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>heathermci</t>
+    <t>We stayed here for a mid-week get away. The rooms were basic, clean and functional. My interactions with staff were pleasant and their staff was very helpful. It is very close to the beach and also unfortunately the train (which was not a major issue for us). The breakfast was basic but again good for us. I recommend the hotel if you’re on a budget and would like a very functional hotel. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r581556625-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
@@ -206,9 +224,6 @@
 There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was...Spent three nights at the Beachfront Inn and Suites.  I stayed in a back room facing a hill essentially - so not much of a view or scenery - but on the plus side, it was cheaper, and very quiet. Although it is located on the coastal highway, I could not hear the traffic from the back room.  I also did not hear any noise from neighboring rooms,  which was nice. While the room was small, the bed was very comfortable. Continental breakfast in the morning was very simple and included yogurts, cereals, hardboiled eggs, make-your-own waffles courtesy of a waffle iron, breads/bagels.  I liked that there was (half &amp; half) cream for coffee in the morning.  The Inn is also within walking distance to several restaurants on the coastal highway. There were improvements that could be made to the overall condition of the room and cleanliness, in that the sheets had an oil stain on them, and some other dirt spot on them, in addition to some hair - so I was not sure that they had been washed. The pillows were small, and there was no extra blanket in the room. On the particular weekend I went, the weather was cool and overcast- so an extra blanket would have been nice. The room was also in need of a paint job and the curtains needed to be cleaned. There was a room on the 3rd floor that was being painted, so perhaps all rooms were set to be painted and renovated in the near future. Additionally, there was a drip coming from the bathroom fan, possibly from the condensation after the shower, but it continued for a while after the shower was used. The cleaning people did come in each day to clean the room, and were also very responsive to my request to change the sheets. Also on the last night, the plastic key card to the room, did not work, but fortunately the person in the office was there and able to replace it quickly and apologized for the glitch.More</t>
   </si>
   <si>
-    <t>Margaret C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r579536312-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -224,13 +239,55 @@
     <t>I was in town for a wedding and I stayed here for a long weekend .I was kind of hesitant at first being there were not that many reviews.But it was great .I had a suite on the 3rd floor  with two large king beds. Huge living room , microwave  mini fridge and the view was awesome. While  it didnt have all the bells and whistles  of all the big resorts.  My room was clean , the front desk and all the staff were  wonderful.  The location was greatI would definitely  stay here if back in the area again . I hardley heard the train .I  hear louder noises  at my house with traffic  then I did here . The only suggestion  I would  make is possibly  add more of a selection  to the breakfast . Besides that everything  is wonderful.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I was in town for a wedding and I stayed here for a long weekend .I was kind of hesitant at first being there were not that many reviews.But it was great .I had a suite on the 3rd floor  with two large king beds. Huge living room , microwave  mini fridge and the view was awesome. While  it didnt have all the bells and whistles  of all the big resorts.  My room was clean , the front desk and all the staff were  wonderful.  The location was greatI would definitely  stay here if back in the area again . I hardley heard the train .I  hear louder noises  at my house with traffic  then I did here . The only suggestion  I would  make is possibly  add more of a selection  to the breakfast . Besides that everything  is wonderful.More</t>
   </si>
   <si>
-    <t>Chuck W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r566695814-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>566695814</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>nice comfortable</t>
+  </si>
+  <si>
+    <t>nice comfortable place to stay a few days --loved the big hot tub--decent breakfast in the mornings.  older place with some wear and tear.  Most rooms do not have ocean view but a hillside view.  parking is easy and accessible.  friendly helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Dana R, Guest Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>nice comfortable place to stay a few days --loved the big hot tub--decent breakfast in the mornings.  older place with some wear and tear.  Most rooms do not have ocean view but a hillside view.  parking is easy and accessible.  friendly helpful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r565328973-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>565328973</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel across from ocean</t>
+  </si>
+  <si>
+    <t>Valet parking with garage on premises. The hotel was across street from the ocean and room had nice ocean view.  All the staff members were very pleasant and helpful.  The extensive breakfast buffet was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Valet parking with garage on premises. The hotel was across street from the ocean and room had nice ocean view.  All the staff members were very pleasant and helpful.  The extensive breakfast buffet was excellent.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r563461898-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
@@ -248,21 +305,9 @@
     <t>Was looking for a place to stay we hadn't stayed before. I found Beachfront Inn and Suites at Dana Point, Not a lot of reviews but I am Glad I found this place. Rooms are very big 650 to 700 sq feet. The room or Suite I had was overlooking the ocean and beach. Very quite and peaceful. Front desk staff are friendly and welcoming. Hotel is clean. Limited House Keeping but I can make my own bed :-)MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Dana R, Guest Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded March 24, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 24, 2018</t>
-  </si>
-  <si>
     <t>Was looking for a place to stay we hadn't stayed before. I found Beachfront Inn and Suites at Dana Point, Not a lot of reviews but I am Glad I found this place. Rooms are very big 650 to 700 sq feet. The room or Suite I had was overlooking the ocean and beach. Very quite and peaceful. Front desk staff are friendly and welcoming. Hotel is clean. Limited House Keeping but I can make my own bed :-)More</t>
   </si>
   <si>
-    <t>BJ F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r549768988-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -290,9 +335,6 @@
     <t>Had an amazing time here and the management was so accomodating to our needs. Craig is a great manager. It's also a beautiful location. The best on the beach! Is also close to many places to eat and fun activities. More</t>
   </si>
   <si>
-    <t>154aliza</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r543035316-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
   </si>
   <si>
@@ -318,6 +360,87 @@
   </si>
   <si>
     <t>One hour away from Los Angeles without traffic . Very attentive customer service. Excellent location. Close to points of interest along the coast and to Restaurants.We walked over the bridge to the beach and witnessed the most majestic sunset.We had a wonderful time at our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32279-d499011-r533920053-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>533920053</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Great value for a great location</t>
+  </si>
+  <si>
+    <t>This location was formerly a Quality Inn that has changed ownership. We just finished spending a few days here and it was a great hotel. We had a suite on the third floor with a balcony overlooking the ocean. The suite itself had a large bedroom with 2 king beds and a TV, a living room with a TV, couch and cushioned chair and a sitting/eating area with fridge, microwave and sink. The balcony also had table and chairs. The parking lot is located under the hotel and is free. A continental breakfast is also included each morning. Very simple: cold cereals, bagels, toast, hard boiled eggs, packaged danishes, a waffle iron, juice, tea, coffee. There is no pool but a large jacuzzi is available. The hotel sits right off the Pacific Coast Highway and directly faces the ocean. The ocean is across the street and also across railroad tracks. You CANNOT simply walk across to it. You cannot walk over the tracks as there is a fence on the beach side of them. You walk about half a block down from the hotel and there is an elevated walkway that takes you over the tracks onto the beach. This is not unique to this hotel. Another option is to drive to it but you need to pay a parking fee if you do. The tracks themselves are for Amtrack trains about 4 railcars in length. They come by once...This location was formerly a Quality Inn that has changed ownership. We just finished spending a few days here and it was a great hotel. We had a suite on the third floor with a balcony overlooking the ocean. The suite itself had a large bedroom with 2 king beds and a TV, a living room with a TV, couch and cushioned chair and a sitting/eating area with fridge, microwave and sink. The balcony also had table and chairs. The parking lot is located under the hotel and is free. A continental breakfast is also included each morning. Very simple: cold cereals, bagels, toast, hard boiled eggs, packaged danishes, a waffle iron, juice, tea, coffee. There is no pool but a large jacuzzi is available. The hotel sits right off the Pacific Coast Highway and directly faces the ocean. The ocean is across the street and also across railroad tracks. You CANNOT simply walk across to it. You cannot walk over the tracks as there is a fence on the beach side of them. You walk about half a block down from the hotel and there is an elevated walkway that takes you over the tracks onto the beach. This is not unique to this hotel. Another option is to drive to it but you need to pay a parking fee if you do. The tracks themselves are for Amtrack trains about 4 railcars in length. They come by once every 1 or 2 hours during the day. They run at night as well but not as often. The noise was minimal at night for us, We had no problems sleeping. The hotel staff was great and very helpful. The hotel is within very close walking distance of several places to eat and drink. For what you are getting and the location, they are offering a great rate. The only con I would say are the railroad tracks. Some people are simply not going to like having to walk to the bridge and climb the stairs or being across the street from them. However, there are at least 5 or 6 other nice hotels on this strip all in a line. It's just the way this section of the coast is laid out. We would most definitely return to this hotel and plan to in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Dana R, Public Relations Manager at The Beachfront Inn &amp; Suites at Dana Point, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>This location was formerly a Quality Inn that has changed ownership. We just finished spending a few days here and it was a great hotel. We had a suite on the third floor with a balcony overlooking the ocean. The suite itself had a large bedroom with 2 king beds and a TV, a living room with a TV, couch and cushioned chair and a sitting/eating area with fridge, microwave and sink. The balcony also had table and chairs. The parking lot is located under the hotel and is free. A continental breakfast is also included each morning. Very simple: cold cereals, bagels, toast, hard boiled eggs, packaged danishes, a waffle iron, juice, tea, coffee. There is no pool but a large jacuzzi is available. The hotel sits right off the Pacific Coast Highway and directly faces the ocean. The ocean is across the street and also across railroad tracks. You CANNOT simply walk across to it. You cannot walk over the tracks as there is a fence on the beach side of them. You walk about half a block down from the hotel and there is an elevated walkway that takes you over the tracks onto the beach. This is not unique to this hotel. Another option is to drive to it but you need to pay a parking fee if you do. The tracks themselves are for Amtrack trains about 4 railcars in length. They come by once...This location was formerly a Quality Inn that has changed ownership. We just finished spending a few days here and it was a great hotel. We had a suite on the third floor with a balcony overlooking the ocean. The suite itself had a large bedroom with 2 king beds and a TV, a living room with a TV, couch and cushioned chair and a sitting/eating area with fridge, microwave and sink. The balcony also had table and chairs. The parking lot is located under the hotel and is free. A continental breakfast is also included each morning. Very simple: cold cereals, bagels, toast, hard boiled eggs, packaged danishes, a waffle iron, juice, tea, coffee. There is no pool but a large jacuzzi is available. The hotel sits right off the Pacific Coast Highway and directly faces the ocean. The ocean is across the street and also across railroad tracks. You CANNOT simply walk across to it. You cannot walk over the tracks as there is a fence on the beach side of them. You walk about half a block down from the hotel and there is an elevated walkway that takes you over the tracks onto the beach. This is not unique to this hotel. Another option is to drive to it but you need to pay a parking fee if you do. The tracks themselves are for Amtrack trains about 4 railcars in length. They come by once every 1 or 2 hours during the day. They run at night as well but not as often. The noise was minimal at night for us, We had no problems sleeping. The hotel staff was great and very helpful. The hotel is within very close walking distance of several places to eat and drink. For what you are getting and the location, they are offering a great rate. The only con I would say are the railroad tracks. Some people are simply not going to like having to walk to the bridge and climb the stairs or being across the street from them. However, there are at least 5 or 6 other nice hotels on this strip all in a line. It's just the way this section of the coast is laid out. We would most definitely return to this hotel and plan to in the future.More</t>
+  </si>
+  <si>
+    <t>STR#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>TA_ReviewURL</t>
+  </si>
+  <si>
+    <t>English_Reviews_num</t>
+  </si>
+  <si>
+    <t>Local_Rank</t>
+  </si>
+  <si>
+    <t>Total_Reviews_num</t>
+  </si>
+  <si>
+    <t>Orbitz_ReviewURL</t>
+  </si>
+  <si>
+    <t>The Beachfront Inn &amp; Suites @ Dana Point</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Capistrano Beach</t>
+  </si>
+  <si>
+    <t>92624</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/Hotel_Review-g32279-d499011-Reviews-The_Beachfront_Inn_Suites_at_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://www.orbitz.com/Orange-County-Hotels-Beachfront-Inn-And-Suites-At-Dana-Point.h18815272.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529287285287&amp;cancellable=false&amp;regionId=6752&amp;vip=false&amp;c=8ac048d6-a645-44a5-976d-4f12b896cc06&amp;mctc=9&amp;exp_dp=183.33&amp;exp_ts=1529287285785&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
 </sst>
 </file>
@@ -691,37 +814,851 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>29152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29152</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -743,471 +1680,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>29152</v>
       </c>
-      <c r="B2" t="n">
-        <v>-1</v>
+      <c r="B2" t="s">
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>29152</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29152</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>29152</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>29152</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>29152</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
